--- a/natmiOut/OldD2/LR-pairs_lrc2p/Ccl12-Ccr1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Ccl12-Ccr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
   </si>
   <si>
     <t>Ccl12</t>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>29.1959613746812</v>
+        <v>29.48083233333334</v>
       </c>
       <c r="H2">
-        <v>29.1959613746812</v>
+        <v>88.442497</v>
       </c>
       <c r="I2">
-        <v>0.3807515482089957</v>
+        <v>0.3670116098006381</v>
       </c>
       <c r="J2">
-        <v>0.3807515482089957</v>
+        <v>0.367011609800638</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>42.6199138764738</v>
+        <v>58.378819</v>
       </c>
       <c r="N2">
-        <v>42.6199138764738</v>
+        <v>175.136457</v>
       </c>
       <c r="O2">
-        <v>0.6770568603959438</v>
+        <v>0.6920327730022572</v>
       </c>
       <c r="P2">
-        <v>0.6770568603959438</v>
+        <v>0.6920327730022573</v>
       </c>
       <c r="Q2">
-        <v>1244.329359329769</v>
+        <v>1721.056174757015</v>
       </c>
       <c r="R2">
-        <v>1244.329359329769</v>
+        <v>15489.50557281313</v>
       </c>
       <c r="S2">
-        <v>0.2577904478212775</v>
+        <v>0.253984062054358</v>
       </c>
       <c r="T2">
-        <v>0.2577904478212775</v>
+        <v>0.253984062054358</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>29.1959613746812</v>
+        <v>29.48083233333334</v>
       </c>
       <c r="H3">
-        <v>29.1959613746812</v>
+        <v>88.442497</v>
       </c>
       <c r="I3">
-        <v>0.3807515482089957</v>
+        <v>0.3670116098006381</v>
       </c>
       <c r="J3">
-        <v>0.3807515482089957</v>
+        <v>0.367011609800638</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>20.3288816671525</v>
+        <v>25.979641</v>
       </c>
       <c r="N3">
-        <v>20.3288816671525</v>
+        <v>77.938923</v>
       </c>
       <c r="O3">
-        <v>0.3229431396040562</v>
+        <v>0.3079672269977427</v>
       </c>
       <c r="P3">
-        <v>0.3229431396040562</v>
+        <v>0.3079672269977428</v>
       </c>
       <c r="Q3">
-        <v>593.5212439446492</v>
+        <v>765.9014404011924</v>
       </c>
       <c r="R3">
-        <v>593.5212439446492</v>
+        <v>6893.112963610732</v>
       </c>
       <c r="S3">
-        <v>0.1229611003877183</v>
+        <v>0.1130275477462801</v>
       </c>
       <c r="T3">
-        <v>0.1229611003877183</v>
+        <v>0.1130275477462801</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -640,61 +643,61 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>47.483861759368</v>
+        <v>50.60572933333333</v>
       </c>
       <c r="H4">
-        <v>47.483861759368</v>
+        <v>151.817188</v>
       </c>
       <c r="I4">
-        <v>0.6192484517910042</v>
+        <v>0.6299988405266995</v>
       </c>
       <c r="J4">
-        <v>0.6192484517910042</v>
+        <v>0.6299988405266995</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>42.6199138764738</v>
+        <v>58.378819</v>
       </c>
       <c r="N4">
-        <v>42.6199138764738</v>
+        <v>175.136457</v>
       </c>
       <c r="O4">
-        <v>0.6770568603959438</v>
+        <v>0.6920327730022572</v>
       </c>
       <c r="P4">
-        <v>0.6770568603959438</v>
+        <v>0.6920327730022573</v>
       </c>
       <c r="Q4">
-        <v>2023.758098706652</v>
+        <v>2954.302713113657</v>
       </c>
       <c r="R4">
-        <v>2023.758098706652</v>
+        <v>26588.72441802291</v>
       </c>
       <c r="S4">
-        <v>0.4192664125746663</v>
+        <v>0.4359798445978987</v>
       </c>
       <c r="T4">
-        <v>0.4192664125746663</v>
+        <v>0.4359798445978987</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -702,61 +705,185 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>47.483861759368</v>
+        <v>50.60572933333333</v>
       </c>
       <c r="H5">
-        <v>47.483861759368</v>
+        <v>151.817188</v>
       </c>
       <c r="I5">
-        <v>0.6192484517910042</v>
+        <v>0.6299988405266995</v>
       </c>
       <c r="J5">
-        <v>0.6192484517910042</v>
+        <v>0.6299988405266995</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.3288816671525</v>
+        <v>25.979641</v>
       </c>
       <c r="N5">
-        <v>20.3288816671525</v>
+        <v>77.938923</v>
       </c>
       <c r="O5">
-        <v>0.3229431396040562</v>
+        <v>0.3079672269977427</v>
       </c>
       <c r="P5">
-        <v>0.3229431396040562</v>
+        <v>0.3079672269977428</v>
       </c>
       <c r="Q5">
-        <v>965.2938068056197</v>
+        <v>1314.718680623169</v>
       </c>
       <c r="R5">
-        <v>965.2938068056197</v>
+        <v>11832.46812560852</v>
       </c>
       <c r="S5">
-        <v>0.1999820392163379</v>
+        <v>0.1940189959288008</v>
       </c>
       <c r="T5">
-        <v>0.1999820392163379</v>
+        <v>0.1940189959288008</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.2401406666666667</v>
+      </c>
+      <c r="H6">
+        <v>0.720422</v>
+      </c>
+      <c r="I6">
+        <v>0.0029895496726624</v>
+      </c>
+      <c r="J6">
+        <v>0.0029895496726624</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>58.378819</v>
+      </c>
+      <c r="N6">
+        <v>175.136457</v>
+      </c>
+      <c r="O6">
+        <v>0.6920327730022572</v>
+      </c>
+      <c r="P6">
+        <v>0.6920327730022573</v>
+      </c>
+      <c r="Q6">
+        <v>14.01912851387267</v>
+      </c>
+      <c r="R6">
+        <v>126.172156624854</v>
+      </c>
+      <c r="S6">
+        <v>0.002068866350000551</v>
+      </c>
+      <c r="T6">
+        <v>0.002068866350000551</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.2401406666666667</v>
+      </c>
+      <c r="H7">
+        <v>0.720422</v>
+      </c>
+      <c r="I7">
+        <v>0.0029895496726624</v>
+      </c>
+      <c r="J7">
+        <v>0.0029895496726624</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>25.979641</v>
+      </c>
+      <c r="N7">
+        <v>77.938923</v>
+      </c>
+      <c r="O7">
+        <v>0.3079672269977427</v>
+      </c>
+      <c r="P7">
+        <v>0.3079672269977428</v>
+      </c>
+      <c r="Q7">
+        <v>6.238768309500667</v>
+      </c>
+      <c r="R7">
+        <v>56.148914785506</v>
+      </c>
+      <c r="S7">
+        <v>0.0009206833226618486</v>
+      </c>
+      <c r="T7">
+        <v>0.0009206833226618488</v>
       </c>
     </row>
   </sheetData>
